--- a/results/Office.Texture.rotationXAxis.xlsx
+++ b/results/Office.Texture.rotationXAxis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -68,6 +68,18 @@
   <si>
     <t>PCA</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>FM-2D</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,13 +110,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,11 +539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543832560"/>
-        <c:axId val="543832952"/>
+        <c:axId val="195092552"/>
+        <c:axId val="195091376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543832560"/>
+        <c:axId val="195092552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543832952"/>
+        <c:crossAx val="195091376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -567,7 +589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543832952"/>
+        <c:axId val="195091376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -613,7 +635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543832560"/>
+        <c:crossAx val="195092552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,11 +1534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="543836088"/>
-        <c:axId val="543834128"/>
+        <c:axId val="195088632"/>
+        <c:axId val="195088240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="543836088"/>
+        <c:axId val="195088632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543834128"/>
+        <c:crossAx val="195088240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1533,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543834128"/>
+        <c:axId val="195088240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1546,7 +1568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543836088"/>
+        <c:crossAx val="195088632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1963,11 +1985,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543834520"/>
-        <c:axId val="543834912"/>
+        <c:axId val="195092944"/>
+        <c:axId val="195085496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543834520"/>
+        <c:axId val="195092944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543834912"/>
+        <c:crossAx val="195085496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2013,7 +2035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543834912"/>
+        <c:axId val="195085496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2059,7 +2081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543834520"/>
+        <c:crossAx val="195092944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2114,7 +2136,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2153,16 +2175,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>242886</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2182,7 +2204,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="11849100" y="676274"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2493,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,13 +2526,13 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2538,8 +2560,29 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2567,8 +2610,36 @@
       <c r="I4">
         <v>5.3007400000000002</v>
       </c>
+      <c r="J4">
+        <f>MIN(G4:I4)</f>
+        <v>5.3007400000000002</v>
+      </c>
+      <c r="L4">
+        <f>MIN(C4:J4)</f>
+        <v>5.1075900000000001</v>
+      </c>
+      <c r="M4">
+        <f>IF($L4=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N28" si="0">IF($L4=D4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O28" si="1">IF($L4=E4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P28" si="2">IF($L4=F4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IF($L4=J4,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -2597,10 +2668,38 @@
       <c r="I5">
         <v>3.4005200000000002</v>
       </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J28" si="3">MIN(G5:I5)</f>
+        <v>3.3618600000000001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L28" si="4">MIN(C5:J5)</f>
+        <v>3.2557900000000002</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M28" si="5">IF($L5=C5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q28" si="6">IF($L5=J5,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <f t="shared" ref="A6:A28" si="7">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6">
@@ -2627,10 +2726,38 @@
       <c r="I6">
         <v>3.02461</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>2.8968500000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>2.8968500000000001</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B7">
@@ -2657,10 +2784,38 @@
       <c r="I7">
         <v>3.9357099999999998</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>3.9357099999999998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>3.9025400000000001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="B8">
@@ -2687,10 +2842,38 @@
       <c r="I8">
         <v>3.56359</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>3.56359</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>3.4517899999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B9">
@@ -2717,10 +2900,38 @@
       <c r="I9">
         <v>3.59789</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>3.59789</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>3.5565799999999999</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="B10">
@@ -2747,10 +2958,38 @@
       <c r="I10">
         <v>3.7886700000000002</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>3.7886700000000002</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>3.7513399999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="B11">
@@ -2777,10 +3016,38 @@
       <c r="I11">
         <v>5.6796699999999998</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>5.2401900000000001</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>4.2968700000000002</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B12">
@@ -2807,10 +3074,38 @@
       <c r="I12">
         <v>3.78986</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>3.78986</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>3.7271800000000002</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B13">
@@ -2837,10 +3132,38 @@
       <c r="I13">
         <v>4.87439</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>4.87439</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>4.71556</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="B14">
@@ -2867,10 +3190,38 @@
       <c r="I14">
         <v>4.7787899999999999</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>4.7347200000000003</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>4.2674700000000003</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="B15">
@@ -2897,10 +3248,38 @@
       <c r="I15">
         <v>4.0201000000000002</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>4.0201000000000002</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>3.7554500000000002</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="B16">
@@ -2927,10 +3306,38 @@
       <c r="I16">
         <v>3.9358499999999998</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>3.86511</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>3.4412699999999998</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="B17">
@@ -2957,10 +3364,38 @@
       <c r="I17">
         <v>8.7229299999999999</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>8.6734399999999994</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>7.6548800000000004</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="B18">
@@ -2987,10 +3422,38 @@
       <c r="I18">
         <v>8068.3</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>7.2502899999999997</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>4.2890199999999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="B19">
@@ -3017,10 +3480,38 @@
       <c r="I19">
         <v>3.9885100000000002</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>3.71631</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>3.6253600000000001</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="B20">
@@ -3047,10 +3538,38 @@
       <c r="I20">
         <v>3.4969100000000002</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>3.4969100000000002</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>3.2621899999999999</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="B21">
@@ -3077,10 +3596,38 @@
       <c r="I21">
         <v>3.6360600000000001</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>3.6360600000000001</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>3.5430999999999999</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="B22">
@@ -3107,10 +3654,38 @@
       <c r="I22">
         <v>3.5870700000000002</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>3.5870700000000002</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>3.3780100000000002</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="B23">
@@ -3137,10 +3712,38 @@
       <c r="I23">
         <v>4.2092400000000003</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>4.2092400000000003</v>
+      </c>
+      <c r="L23">
+        <f>MIN(C23:J23)</f>
+        <v>4.2092400000000003</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="B24">
@@ -3167,10 +3770,38 @@
       <c r="I24">
         <v>3.9983200000000001</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>3.9983200000000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>3.74044</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="B25">
@@ -3197,10 +3828,38 @@
       <c r="I25">
         <v>3.0729799999999998</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>2.9712100000000001</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>2.9712100000000001</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="B26">
@@ -3227,10 +3886,38 @@
       <c r="I26">
         <v>3.2675200000000002</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>3.2344200000000001</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>3.2178200000000001</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="B27">
@@ -3257,10 +3944,38 @@
       <c r="I27">
         <v>16.863399999999999</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>16.863399999999999</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>16.242799999999999</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="B28">
@@ -3287,8 +4002,62 @@
       <c r="I28">
         <v>2.9577599999999999</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>2.8530600000000002</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>2.8530600000000002</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f>ROUND(AVERAGE(M4:M28)*100,2)</f>
+        <v>52</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29:R29" si="8">ROUND(AVERAGE(N4:N28)*100,2)</f>
+        <v>4</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="R29" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3319,8 +4088,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3333,663 +4120,1117 @@
         <v>0.61719263562893933</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:I31" si="1">D4/$B31</f>
+        <f t="shared" ref="D31:I31" si="9">D4/$B31</f>
         <v>1.8076688836471908</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.68410806813348279</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.0005933161904026</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.66520170333707118</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.87667361084258144</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.64053255867909209</v>
       </c>
       <c r="J31">
         <f>MIN(G31:I31)</f>
         <v>0.64053255867909209</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.61719263562893933</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="10">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A31+1</f>
+        <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B38" si="2">B6</f>
+        <f t="shared" ref="B32:B38" si="11">B6</f>
         <v>3.8807299999999998</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I38" si="3">C6/$B32</f>
+        <f t="shared" ref="C32:I38" si="12">C6/$B32</f>
         <v>0.75211880239027196</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.2368781131385076</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.80811342195927061</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.98872119420830618</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.74647038057272741</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.91697438368554385</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.77939202160418275</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J46" si="4">MIN(G32:I32)</f>
+        <f t="shared" ref="J32:J46" si="13">MIN(G32:I32)</f>
         <v>0.74647038057272741</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L46" si="14">MIN(C32:J32)</f>
+        <v>0.74647038057272741</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M46" si="15">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q46" si="16">IF($L32=J32,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="e">
-        <f t="shared" ref="A33:A46" si="5">A32+1</f>
-        <v>#REF!</v>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A46" si="17">A32+1</f>
+        <v>3</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>8.9841300000000004</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.43438151496026883</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.46831134455979601</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.48245628680796027</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.98907851956728143</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.4548598473085318</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.46858627379612711</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.43807358085869191</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.43807358085869191</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="14"/>
+        <v>0.43438151496026883</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.04026</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.94063995881453177</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0621989673931875</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.8543484825234019</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0251023448985956</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.88443318004286853</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.2728512521471389</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.88201996901189528</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.88201996901189528</v>
       </c>
+      <c r="L34">
+        <f t="shared" si="14"/>
+        <v>0.8543484825234019</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.91492</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.90846811684529949</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12.169776138465155</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.9283612436524884</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0088814075383405</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.94956218773308265</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.1304879793201394</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.91902005660396635</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.91902005660396635</v>
       </c>
+      <c r="L35">
+        <f t="shared" si="14"/>
+        <v>0.90846811684529949</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.5838999999999999</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.89116909182137483</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.1620606906782434</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.81837300115622069</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0027443879665787</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.93261414952333166</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.85110059119963355</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.82651672156896971</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.82651672156896971</v>
       </c>
+      <c r="L36">
+        <f t="shared" si="14"/>
+        <v>0.81837300115622069</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.8600899999999996</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.77321508714029996</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.90807991003551147</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.73324300480026761</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0237265980556614</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.89421664172393267</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0284586072910145</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.96921207694762368</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.89421664172393267</v>
       </c>
+      <c r="L37">
+        <f t="shared" si="14"/>
+        <v>0.73324300480026761</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
-        <f>A37+1</f>
-        <v>#REF!</v>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.3722000000000003</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.85247243950413976</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.2691574035954438</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.93077169388408565</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.0130209048076482</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.98632496226156163</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.62812542884589</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.86680847170760711</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.86680847170760711</v>
       </c>
+      <c r="L38">
+        <f t="shared" si="14"/>
+        <v>0.85247243950413976</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="17"/>
+        <v>9</v>
       </c>
       <c r="B39">
         <f>B14</f>
         <v>5.8156100000000004</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:I40" si="6">C14/$B39</f>
+        <f t="shared" ref="C39:I40" si="18">C14/$B39</f>
         <v>0.73379576691009196</v>
       </c>
       <c r="D39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.77779287125512198</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.77768454212025906</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.9875404299806898</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.81413987526673903</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1562862709156907</v>
       </c>
       <c r="I39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.82171775617691001</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.81413987526673903</v>
       </c>
+      <c r="L39">
+        <f t="shared" si="14"/>
+        <v>0.73379576691009196</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="B40">
         <f>B15</f>
         <v>12.930099999999999</v>
       </c>
       <c r="C40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.29044245597481849</v>
       </c>
       <c r="D40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.6754549462107797</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.33818222596886333</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.60563955421845161</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.31700064191305555</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.5873171901222729</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.31091020177724848</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.31091020177724848</v>
       </c>
+      <c r="L40">
+        <f t="shared" si="14"/>
+        <v>0.29044245597481849</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="17"/>
+        <v>11</v>
       </c>
       <c r="B41">
         <f>B19</f>
         <v>4.9784800000000002</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:I41" si="7">C19/$B41</f>
+        <f t="shared" ref="C41:I41" si="19">C19/$B41</f>
         <v>0.73099018174221841</v>
       </c>
       <c r="D41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.72820619948257304</v>
       </c>
       <c r="E41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.73757452073725316</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.99943356205106781</v>
       </c>
       <c r="G41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.74647482765824102</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2259786119458147</v>
       </c>
       <c r="I41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.80115015024666159</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.74647482765824102</v>
       </c>
+      <c r="L41">
+        <f t="shared" si="14"/>
+        <v>0.72820619948257304</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="17"/>
+        <v>12</v>
       </c>
       <c r="B42">
         <f>B21</f>
         <v>5.8470500000000003</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:I44" si="8">C21/$B42</f>
+        <f t="shared" ref="C42:I44" si="20">C21/$B42</f>
         <v>0.60596369109208914</v>
       </c>
       <c r="D42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.2169059611256958</v>
       </c>
       <c r="E42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.61305615652337497</v>
       </c>
       <c r="F42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.88136239642212733</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.64439161628513519</v>
       </c>
       <c r="H42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.3654920002394368</v>
       </c>
       <c r="I42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.62186230663325948</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.62186230663325948</v>
       </c>
+      <c r="L42">
+        <f t="shared" si="14"/>
+        <v>0.60596369109208914</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="17"/>
+        <v>13</v>
       </c>
       <c r="B43">
         <f>B22</f>
         <v>4.7018899999999997</v>
       </c>
       <c r="C43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.71843662867485214</v>
       </c>
       <c r="D43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.0626237534268137</v>
       </c>
       <c r="E43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.72708846867961607</v>
       </c>
       <c r="F43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0088283647639567</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.79855760130500719</v>
       </c>
       <c r="H43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5914898051634556</v>
       </c>
       <c r="I43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.76289959994810608</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.76289959994810608</v>
       </c>
+      <c r="L43">
+        <f t="shared" si="14"/>
+        <v>0.71843662867485214</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="17"/>
+        <v>14</v>
       </c>
       <c r="B44">
         <f>B23</f>
         <v>9.1140299999999996</v>
       </c>
       <c r="C44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.48891983019586288</v>
       </c>
       <c r="D44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.4738167418803757</v>
       </c>
       <c r="E44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.482682194375046</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.94625648587946276</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.46704476504905079</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.98986727057075741</v>
       </c>
       <c r="I44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.46184179775576784</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.46184179775576784</v>
       </c>
+      <c r="L44">
+        <f t="shared" si="14"/>
+        <v>0.46184179775576784</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="17"/>
+        <v>15</v>
       </c>
       <c r="B45">
         <f>B25</f>
         <v>4.14459</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:I46" si="9">C25/$B45</f>
+        <f t="shared" ref="C45:I46" si="21">C25/$B45</f>
         <v>0.74043029587968889</v>
       </c>
       <c r="D45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.72128968124711978</v>
       </c>
       <c r="E45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.73768454780810644</v>
       </c>
       <c r="F45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.98615303323127257</v>
       </c>
       <c r="G45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.71688876342412644</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.6180152922243214</v>
       </c>
       <c r="I45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.74144366511524662</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.71688876342412644</v>
       </c>
+      <c r="L45">
+        <f t="shared" si="14"/>
+        <v>0.71688876342412644</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="B46">
         <f>B26</f>
         <v>6.3714399999999998</v>
       </c>
       <c r="C46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.50503810755496403</v>
       </c>
       <c r="D46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.55024138970154313</v>
       </c>
       <c r="E46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.63846791306203943</v>
       </c>
       <c r="F46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.95905949047625028</v>
       </c>
       <c r="G46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.50764348404756232</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.2609645543236696</v>
       </c>
       <c r="I46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.51283854199364665</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.50764348404756232</v>
       </c>
+      <c r="L46">
+        <f t="shared" si="14"/>
+        <v>0.50503810755496403</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <f>ROUND(AVERAGE(B31:B46)*1000,2)</f>
+        <v>6113.43</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:J47" si="22">ROUND(AVERAGE(C31:C46)*1000,2)</f>
+        <v>686.48</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="22"/>
+        <v>2080.65</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="22"/>
+        <v>705.76</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="22"/>
+        <v>964.13</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="22"/>
+        <v>720.36</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="22"/>
+        <v>1248.04</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="22"/>
+        <v>709.76</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="22"/>
+        <v>697.27</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="2">
+        <f>ROUND(AVERAGE(M31:M46)*100,2)</f>
+        <v>56.25</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" ref="N47:Q47" si="23">ROUND(AVERAGE(N31:N46)*100,2)</f>
+        <v>6.25</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="23"/>
+        <v>18.75</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="23"/>
+        <v>18.75</v>
+      </c>
+      <c r="R47" s="2">
+        <f>SUM(M47:Q47)</f>
+        <v>100</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
